--- a/개인 작업 폴더/조승희/[컨텐츠]_퀘스트기획_v0.01.xlsx
+++ b/개인 작업 폴더/조승희/[컨텐츠]_퀘스트기획_v0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero3\Desktop\가마우지\개인 작업 폴더\조승희\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB85AD-4F83-46A0-B5CB-F2EE13E880F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A2B9A-060E-4467-84D3-7FBF99BDEA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="255" windowWidth="16485" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="915" windowWidth="21645" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참고할 것" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>*퀘스트를 어떻게 수행하면 되는지에 대한 방법 전달</t>
   </si>
@@ -247,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -265,6 +266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -283,6 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -301,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -319,6 +323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -332,6 +337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -350,6 +356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -368,6 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -386,6 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -404,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -417,6 +427,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -440,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -458,6 +470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -481,6 +494,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3210,10 +3224,6 @@
   </si>
   <si>
     <t>보상</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3336,12 +3346,32 @@
     <t>퀘스트 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>상위 퀘스트 ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 퀘스트에 속하는 퀘스트의 ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 퀘스트에 속하는 퀘스트의 이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 퀘스트</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 퀘스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3350,28 +3380,33 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3474,12 +3509,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -3524,29 +3553,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3571,14 +3585,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3720,28 +3728,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3772,19 +3758,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3836,6 +3826,75 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3848,130 +3907,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4191,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4207,483 +4173,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="U2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="U3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="38" t="s">
-        <v>79</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="21" t="s">
+        <v>109</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>91</v>
+      <c r="C5" s="22" t="s">
+        <v>90</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="31"/>
-      <c r="U5" s="26" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="23"/>
+      <c r="U5" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>103</v>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="21" t="s">
+        <v>99</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="31"/>
+      <c r="C12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="23"/>
     </row>
-    <row r="7" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27" t="s">
+    <row r="13" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>89</v>
+      <c r="C13" s="22" t="s">
+        <v>87</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="31"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="23"/>
     </row>
-    <row r="9" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+    <row r="14" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:21" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="C22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="31"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="23"/>
     </row>
-    <row r="19" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="31"/>
+    <row r="23" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="23"/>
     </row>
-    <row r="20" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="31"/>
+    <row r="24" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="23"/>
     </row>
-    <row r="21" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="44" t="s">
+    <row r="25" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="31"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27" t="s">
+    <row r="29" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C29" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="31"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27" t="s">
+    <row r="30" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="31"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27" t="s">
+    <row r="31" spans="1:6" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5637,13 +5615,14 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:A49"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10747,10 +10726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AO1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6:AO7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10767,8 +10746,8 @@
     <col min="23" max="29" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -10784,154 +10763,120 @@
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>80</v>
+      <c r="E7" s="34" t="s">
+        <v>103</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="45" t="s">
+      <c r="F7" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>105</v>
+      <c r="G7" s="47"/>
+      <c r="H7" s="36" t="s">
+        <v>99</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>102</v>
+      <c r="I7" s="36" t="s">
+        <v>81</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="J7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="55" t="s">
-        <v>108</v>
+      <c r="N7" s="34" t="s">
+        <v>94</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="60" t="s">
-        <v>109</v>
+      <c r="O7" s="34" t="s">
+        <v>97</v>
       </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="47" t="s">
-        <v>101</v>
+      <c r="P7" s="34" t="s">
+        <v>98</v>
       </c>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="62"/>
-    </row>
-    <row r="7" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="51" t="s">
-        <v>100</v>
+      <c r="Q7" s="34" t="s">
+        <v>77</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="R7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="46" t="s">
+      <c r="T7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="S7" s="46" t="s">
-        <v>83</v>
+      <c r="U7" s="34" t="s">
+        <v>82</v>
       </c>
-      <c r="T7" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
+      <c r="V7" s="47"/>
     </row>
-    <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11917,18 +11862,14 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="7">
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="P6:U6"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K6:O6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
